--- a/Data/Assign Locker.xlsx
+++ b/Data/Assign Locker.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="6">
   <si>
     <t>Transaction Number</t>
   </si>
@@ -31,6 +31,12 @@
   </si>
   <si>
     <t>OR.0001.0031</t>
+  </si>
+  <si>
+    <t>OR.0038.0031</t>
+  </si>
+  <si>
+    <t>OR.0046.0031</t>
   </si>
 </sst>
 </file>
@@ -349,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
@@ -425,6 +431,26 @@
         <v>2</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Assign Locker.xlsx
+++ b/Data/Assign Locker.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="7">
   <si>
     <t>Transaction Number</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>OR.0046.0031</t>
+  </si>
+  <si>
+    <t>OR.0026.0031</t>
   </si>
 </sst>
 </file>
@@ -355,7 +358,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
@@ -451,6 +454,16 @@
         <v>2</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
